--- a/data/vocab.xlsx
+++ b/data/vocab.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
   <si>
     <t>id</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
   </si>
   <si>
     <t>bought</t>
@@ -1587,7 +1590,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1778,10 +1781,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1792,13 +1795,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1824,13 +1827,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1856,13 +1859,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1888,13 +1891,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1920,13 +1923,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1952,16 +1955,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1970,10 +1973,10 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1984,16 +1987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2002,10 +2005,10 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2016,16 +2019,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -2034,10 +2037,10 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2048,16 +2051,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -2066,10 +2069,10 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2080,16 +2083,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -2098,10 +2101,10 @@
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2112,16 +2115,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -2130,10 +2133,10 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2144,16 +2147,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -2162,10 +2165,10 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2176,16 +2179,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -2194,10 +2197,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2208,16 +2211,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -2226,10 +2229,10 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2240,22 +2243,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2266,22 +2275,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2292,22 +2307,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2318,22 +2339,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2344,22 +2371,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2370,22 +2403,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2396,22 +2435,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2422,22 +2467,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2448,22 +2499,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2474,22 +2531,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2500,22 +2563,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2526,22 +2595,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2552,22 +2627,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2578,22 +2659,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2604,22 +2691,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2630,22 +2723,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2656,22 +2755,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2682,22 +2787,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2708,22 +2819,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2734,22 +2851,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2760,22 +2883,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2786,22 +2915,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2812,22 +2947,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2838,22 +2979,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2864,22 +3011,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2890,22 +3043,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2916,22 +3075,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2942,22 +3107,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2968,22 +3139,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2994,22 +3171,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3020,22 +3203,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3055,13 +3244,19 @@
         <v>12</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3081,13 +3276,19 @@
         <v>19</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3107,13 +3308,19 @@
         <v>22</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3133,13 +3340,19 @@
         <v>25</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -3159,13 +3372,19 @@
         <v>28</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3176,22 +3395,28 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -3202,22 +3427,28 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3228,22 +3459,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
       </c>
       <c r="G59" t="s">
         <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3254,22 +3491,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3280,22 +3523,28 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
       </c>
       <c r="G61" t="s">
         <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -3306,22 +3555,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
       <c r="G62" t="s">
         <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3332,22 +3587,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3358,22 +3619,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3384,22 +3651,28 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3410,22 +3683,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -3436,22 +3715,28 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3462,22 +3747,28 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
       </c>
       <c r="G68" t="s">
         <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -3488,22 +3779,28 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
       </c>
       <c r="G69" t="s">
         <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -3514,22 +3811,28 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
       </c>
       <c r="G70" t="s">
         <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -3540,22 +3843,28 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3566,22 +3875,28 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
       </c>
       <c r="G72" t="s">
         <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -3592,22 +3907,28 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>13</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3618,22 +3939,28 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3644,22 +3971,28 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>13</v>
       </c>
       <c r="G75" t="s">
         <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3670,22 +4003,28 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
       </c>
       <c r="G76" t="s">
         <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -3696,22 +4035,28 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
         <v>13</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -3722,22 +4067,28 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>13</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -3748,22 +4099,28 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>13</v>
       </c>
       <c r="G79" t="s">
         <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>29</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3774,22 +4131,28 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
       </c>
       <c r="G80" t="s">
         <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -3800,22 +4163,28 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -3826,13 +4195,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3852,13 +4221,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3878,13 +4247,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3904,13 +4273,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3930,13 +4299,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3956,13 +4325,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3982,13 +4351,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4008,13 +4377,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4034,13 +4403,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4060,13 +4429,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4086,13 +4455,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4112,13 +4481,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4138,13 +4507,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4164,13 +4533,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4190,13 +4559,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4216,13 +4585,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4242,13 +4611,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D98" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4268,13 +4637,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D99" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4294,13 +4663,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4320,13 +4689,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D101" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4346,13 +4715,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D102" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4372,13 +4741,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4398,13 +4767,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C104" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D104" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4424,13 +4793,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D105" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4450,13 +4819,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4476,13 +4845,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C107" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4502,13 +4871,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D108" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4528,13 +4897,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4554,13 +4923,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4580,13 +4949,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C111" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D111" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4606,13 +4975,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4632,13 +5001,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D113" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4658,13 +5027,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4684,13 +5053,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D115" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4710,13 +5079,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4736,13 +5105,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C117" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D117" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4762,13 +5131,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -4788,13 +5157,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4814,13 +5183,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D120" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4840,13 +5209,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D121" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4866,13 +5235,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C122" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4892,13 +5261,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D123" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4918,13 +5287,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C124" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4944,13 +5313,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C125" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4970,13 +5339,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C126" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D126" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4996,13 +5365,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C127" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D127" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5022,13 +5391,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D128" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -5048,13 +5417,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C129" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -5074,13 +5443,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C130" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D130" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5100,13 +5469,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -5126,13 +5495,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C132" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5152,13 +5521,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C133" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5178,13 +5547,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C134" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -5204,13 +5573,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C135" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5230,13 +5599,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D136" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5256,13 +5625,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D137" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -5282,13 +5651,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C138" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -5308,13 +5677,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C139" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -5334,13 +5703,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C140" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5360,13 +5729,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C141" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -5386,13 +5755,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C142" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5412,13 +5781,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C143" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D143" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5438,13 +5807,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C144" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -5464,13 +5833,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -5490,13 +5859,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C146" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -5516,13 +5885,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C147" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -5542,13 +5911,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -5568,13 +5937,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C149" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5594,13 +5963,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -5620,13 +5989,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C151" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -5646,13 +6015,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C152" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D152" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -5672,13 +6041,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C153" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D153" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -5698,13 +6067,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C154" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D154" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -5724,13 +6093,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C155" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D155" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -5750,13 +6119,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C156" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -5776,13 +6145,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -5802,13 +6171,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C158" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D158" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5828,13 +6197,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C159" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D159" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -5854,13 +6223,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D160" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -5880,13 +6249,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C161" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D161" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -5906,13 +6275,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C162" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D162" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5932,13 +6301,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C163" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D163" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5958,13 +6327,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C164" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D164" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -5984,13 +6353,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D165" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -6010,13 +6379,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D166" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -6036,13 +6405,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C167" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D167" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -6062,13 +6431,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C168" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D168" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -6088,13 +6457,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C169" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D169" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -6114,13 +6483,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C170" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D170" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -6140,13 +6509,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C171" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D171" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -6166,13 +6535,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C172" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D172" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -6192,13 +6561,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C173" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D173" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -6218,13 +6587,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C174" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D174" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -6244,13 +6613,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C175" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D175" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -6270,13 +6639,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C176" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D176" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -6296,13 +6665,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C177" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D177" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -6322,13 +6691,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C178" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D178" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -6348,13 +6717,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C179" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D179" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -6374,13 +6743,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C180" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D180" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -6400,13 +6769,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C181" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D181" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -6426,13 +6795,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C182" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D182" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -6452,13 +6821,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C183" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D183" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -6478,13 +6847,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C184" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D184" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -6504,13 +6873,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D185" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -6530,13 +6899,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C186" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D186" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -6556,13 +6925,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C187" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D187" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -6582,13 +6951,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C188" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D188" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -6608,13 +6977,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C189" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D189" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -6634,13 +7003,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C190" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -6660,13 +7029,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C191" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D191" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -6686,13 +7055,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C192" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D192" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -6712,13 +7081,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C193" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D193" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -6738,13 +7107,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C194" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D194" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -6764,13 +7133,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C195" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D195" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -6790,13 +7159,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C196" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D196" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -6816,13 +7185,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C197" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D197" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -6842,13 +7211,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C198" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D198" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E198">
         <v>0</v>
